--- a/lecture/eval-201811319.xlsx
+++ b/lecture/eval-201811319.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inui/Dropbox/0_tana_dropbox/0_homework/2020-COVID19対応/授業関係/0_kougi-aiai/3_jikken/2020/性能評価/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryota0530/university of Tsukuba/coins/B3/web_text_classfication/lecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01952AB4-3E0B-5244-B0F7-B240C16366BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B73DE8-B3E7-6D4B-8114-5E7E7292A0B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="5420" windowWidth="26380" windowHeight="14960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41540" yWindow="-5700" windowWidth="26380" windowHeight="14960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -141,24 +141,40 @@
       <t>セイノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永崎遼太</t>
+  </si>
+  <si>
+    <t>Results
+1 : 0.9055555555555556
+2 : 0.9035714285714286
+3 : 0.8916666666666666
+4 : 0.9174603174603174
+5 : 0.9138613861386138
+Average
+0.9064230708785164</t>
+  </si>
+  <si>
+    <t>ロジスティック回帰(rho = 0.001, lambda = 1, maxit = 500, tol = 1e-05, 重みベクトルは1で初期化)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -167,7 +183,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -175,7 +191,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -184,7 +200,7 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -269,8 +285,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -610,10 +626,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
@@ -624,17 +640,17 @@
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -642,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -650,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -658,10 +674,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -679,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,15 +714,25 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    <row r="13" spans="1:7" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>201811319</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" thickTop="1"/>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
+        <v>91</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
